--- a/public/EventLogTemplate.xlsx
+++ b/public/EventLogTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lv_goldpower\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="14370" windowHeight="4995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="14370" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,13 +59,13 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>RECTIFIER</t>
+    <t>IDENTITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -147,7 +147,33 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
@@ -158,23 +184,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,60 +504,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -533,17 +565,17 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
